--- a/Unity/Assets/Config/Excel/MapConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MapConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -38,18 +38,12 @@
     <t>所属场景名字</t>
   </si>
   <si>
-    <t>预制体名字</t>
-  </si>
-  <si>
     <t>MapName</t>
   </si>
   <si>
     <t>SceneName</t>
   </si>
   <si>
-    <t>PrefabName</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -62,22 +56,22 @@
     <t>MainCity</t>
   </si>
   <si>
-    <t>地狱1号</t>
-  </si>
-  <si>
-    <t>City1</t>
-  </si>
-  <si>
-    <t>地狱2号</t>
-  </si>
-  <si>
-    <t>City2</t>
-  </si>
-  <si>
-    <t>地狱3号</t>
-  </si>
-  <si>
-    <t>City3</t>
+    <t>地图1</t>
+  </si>
+  <si>
+    <t>MapScene1</t>
+  </si>
+  <si>
+    <t>地图2</t>
+  </si>
+  <si>
+    <t>MapScene2</t>
+  </si>
+  <si>
+    <t>地图3</t>
+  </si>
+  <si>
+    <t>MapScene3</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J9"/>
+  <dimension ref="C3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1087,15 +1081,14 @@
     <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6272727272727" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.1272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.62727272727273" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.7545454545455" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.87272727272727" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75454545454545" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="28.7545454545455" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.87272727272727" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.75454545454545" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:10">
+    <row r="3" ht="13.5" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1105,109 +1098,88 @@
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
     </row>
-    <row r="4" ht="13.5" spans="3:10">
+    <row r="4" ht="13.5" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
     </row>
-    <row r="5" ht="13.5" spans="3:10">
+    <row r="5" ht="13.5" spans="3:9">
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:7">
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="1">
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:7">
+    <row r="7" s="1" customFormat="1" spans="3:6">
       <c r="C7" s="1">
         <v>1001</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:7">
+    <row r="8" s="1" customFormat="1" spans="3:6">
       <c r="C8" s="1">
         <v>1002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:7">
+    <row r="9" s="1" customFormat="1" spans="3:6">
       <c r="C9" s="1">
         <v>1003</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/MapConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MapConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -38,12 +38,24 @@
     <t>所属场景名字</t>
   </si>
   <si>
+    <t>传送点名字</t>
+  </si>
+  <si>
+    <t>章节名字</t>
+  </si>
+  <si>
     <t>MapName</t>
   </si>
   <si>
     <t>SceneName</t>
   </si>
   <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>ChapterName</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -56,22 +68,124 @@
     <t>MainCity</t>
   </si>
   <si>
+    <t>Teleport1</t>
+  </si>
+  <si>
+    <t>初始之地</t>
+  </si>
+  <si>
     <t>地图1</t>
   </si>
   <si>
     <t>MapScene1</t>
   </si>
   <si>
+    <t>Teleport2</t>
+  </si>
+  <si>
     <t>地图2</t>
   </si>
   <si>
     <t>MapScene2</t>
   </si>
   <si>
+    <t>Teleport3</t>
+  </si>
+  <si>
     <t>地图3</t>
   </si>
   <si>
     <t>MapScene3</t>
+  </si>
+  <si>
+    <t>Teleport4</t>
+  </si>
+  <si>
+    <t>地图4</t>
+  </si>
+  <si>
+    <t>MapScene4</t>
+  </si>
+  <si>
+    <t>Teleport5</t>
+  </si>
+  <si>
+    <t>初见端倪</t>
+  </si>
+  <si>
+    <t>地图5</t>
+  </si>
+  <si>
+    <t>MapScene5</t>
+  </si>
+  <si>
+    <t>Teleport6</t>
+  </si>
+  <si>
+    <t>地图6</t>
+  </si>
+  <si>
+    <t>MapScene6</t>
+  </si>
+  <si>
+    <t>Teleport7</t>
+  </si>
+  <si>
+    <t>地图7</t>
+  </si>
+  <si>
+    <t>MapScene7</t>
+  </si>
+  <si>
+    <t>Teleport8</t>
+  </si>
+  <si>
+    <t>地图8</t>
+  </si>
+  <si>
+    <t>MapScene8</t>
+  </si>
+  <si>
+    <t>Teleport9</t>
+  </si>
+  <si>
+    <t>大获全胜</t>
+  </si>
+  <si>
+    <t>地图9</t>
+  </si>
+  <si>
+    <t>MapScene9</t>
+  </si>
+  <si>
+    <t>Teleport10</t>
+  </si>
+  <si>
+    <t>地图10</t>
+  </si>
+  <si>
+    <t>MapScene10</t>
+  </si>
+  <si>
+    <t>Teleport11</t>
+  </si>
+  <si>
+    <t>地图11</t>
+  </si>
+  <si>
+    <t>MapScene11</t>
+  </si>
+  <si>
+    <t>Teleport12</t>
+  </si>
+  <si>
+    <t>地图12</t>
+  </si>
+  <si>
+    <t>MapScene12</t>
+  </si>
+  <si>
+    <t>Teleport13</t>
   </si>
 </sst>
 </file>
@@ -1069,10 +1183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I9"/>
+  <dimension ref="C3:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E9"/>
+      <selection activeCell="E7" sqref="E7:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1081,8 +1195,8 @@
     <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6272727272727" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.1272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.7545454545455" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.87272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5454545454545" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.0909090909091" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.75454545454545" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
@@ -1098,8 +1212,12 @@
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
@@ -1108,78 +1226,259 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" ht="13.5" spans="3:9">
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" spans="3:7">
       <c r="C6" s="1">
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:6">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:7">
       <c r="C7" s="1">
         <v>1001</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:6">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:7">
       <c r="C8" s="1">
         <v>1002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:6">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:7">
       <c r="C9" s="1">
         <v>1003</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/MapConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MapConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>Id</t>
   </si>
@@ -44,6 +44,12 @@
     <t>章节名字</t>
   </si>
   <si>
+    <t>推荐战力</t>
+  </si>
+  <si>
+    <t>传送点Id</t>
+  </si>
+  <si>
     <t>MapName</t>
   </si>
   <si>
@@ -54,6 +60,12 @@
   </si>
   <si>
     <t>ChapterName</t>
+  </si>
+  <si>
+    <t>FightPower</t>
+  </si>
+  <si>
+    <t>TeleportConfigId</t>
   </si>
   <si>
     <t>int</t>
@@ -1186,7 +1198,7 @@
   <dimension ref="C3:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E18"/>
+      <selection activeCell="I6" sqref="I6:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1197,8 +1209,8 @@
     <col min="5" max="5" width="15.1272727272727" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.5454545454545" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.0909090909091" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.75454545454545" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.9090909090909" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.4545454545455" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1218,266 +1230,329 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" ht="13.5" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" ht="13.5" spans="3:9">
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:7">
+    <row r="6" s="1" customFormat="1" spans="3:9">
       <c r="C6" s="1">
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1000</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:7">
+    <row r="7" s="1" customFormat="1" spans="3:9">
       <c r="C7" s="1">
         <v>1001</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1001</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:7">
+    <row r="8" s="1" customFormat="1" spans="3:9">
       <c r="C8" s="1">
         <v>1002</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
+      <c r="H8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1002</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:7">
+    <row r="9" s="1" customFormat="1" spans="3:9">
       <c r="C9" s="1">
         <v>1003</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1003</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:8">
       <c r="C10" s="1">
         <v>1004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:8">
       <c r="C11" s="1">
         <v>1005</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:8">
       <c r="C12" s="1">
         <v>1006</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
+      <c r="H12" s="1">
+        <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:8">
       <c r="C13" s="1">
         <v>1007</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8000</v>
       </c>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:8">
       <c r="C14" s="1">
         <v>1008</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9000</v>
       </c>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="3:8">
       <c r="C15" s="1">
         <v>1009</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="3:7">
+    <row r="16" spans="3:8">
       <c r="C16" s="1">
         <v>1010</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>40</v>
+      <c r="H16" s="1">
+        <v>11000</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:8">
       <c r="C17" s="1">
         <v>1011</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="H17" s="1">
+        <v>12000</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:8">
       <c r="C18" s="1">
         <v>1012</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="H18" s="1">
+        <v>13000</v>
       </c>
     </row>
   </sheetData>
